--- a/data/trans_dic/P55$nadie-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P55$nadie-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +725,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,72</t>
+          <t>0,0; 11,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,52 +735,52 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,48</t>
+          <t>0,0; 12,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,49; 11,68</t>
+          <t>1,97; 12,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,69</t>
+          <t>0,0; 12,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,68</t>
+          <t>0,0; 11,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,88; 16,07</t>
+          <t>1,81; 15,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 4,63</t>
+          <t>0,38; 4,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,11; 9,14</t>
+          <t>1,11; 9,31</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,3</t>
+          <t>0,0; 6,2</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,04; 12,12</t>
+          <t>2,08; 12,28</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,37; 5,81</t>
+          <t>1,27; 5,86</t>
         </is>
       </c>
     </row>
@@ -864,12 +865,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,51</t>
+          <t>0,0; 14,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,42</t>
+          <t>0,0; 13,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,47 +880,47 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,5; 14,3</t>
+          <t>1,43; 14,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,11; 20,54</t>
+          <t>4,37; 19,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,53</t>
+          <t>0,0; 7,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,83; 20,52</t>
+          <t>4,69; 20,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,54; 7,49</t>
+          <t>1,6; 7,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,54; 13,92</t>
+          <t>3,39; 13,73</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,76; 7,29</t>
+          <t>0,76; 7,76</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,27; 13,93</t>
+          <t>3,02; 13,14</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,19; 7,59</t>
+          <t>2,21; 7,5</t>
         </is>
       </c>
     </row>
@@ -1004,12 +1005,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,03</t>
+          <t>0,0; 35,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,48</t>
+          <t>0,0; 39,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,47 +1020,47 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,43; 21,5</t>
+          <t>2,47; 22,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,08; 18,1</t>
+          <t>2,18; 18,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,71</t>
+          <t>0,0; 8,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,52</t>
+          <t>0,0; 12,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 10,27</t>
+          <t>1,96; 11,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,75; 20,76</t>
+          <t>3,87; 19,62</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 16,64</t>
+          <t>1,21; 14,91</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,13</t>
+          <t>0,0; 9,69</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,91; 11,33</t>
+          <t>2,82; 11,1</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,06</t>
+          <t>0,0; 15,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,24</t>
+          <t>0,0; 11,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,84</t>
+          <t>0,0; 18,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,46</t>
+          <t>0,0; 10,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,28; 11,02</t>
+          <t>1,28; 11,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,42</t>
+          <t>0,0; 8,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,02; 19,26</t>
+          <t>4,0; 19,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,0; 11,57</t>
+          <t>4,28; 10,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 9,89</t>
+          <t>0,98; 9,83</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,81; 7,75</t>
+          <t>0,8; 7,14</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,14; 15,84</t>
+          <t>2,99; 15,56</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,69; 9,58</t>
+          <t>3,43; 9,4</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,12; 11,31</t>
+          <t>2,18; 10,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,36; 10,78</t>
+          <t>1,4; 10,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,91</t>
+          <t>0,0; 5,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,99; 8,66</t>
+          <t>3,07; 8,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,67; 10,19</t>
+          <t>3,88; 10,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,82; 4,71</t>
+          <t>0,84; 4,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,32; 12,65</t>
+          <t>5,07; 12,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,98; 6,4</t>
+          <t>3,13; 6,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,95; 9,15</t>
+          <t>3,85; 9,5</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,52; 5,41</t>
+          <t>1,66; 5,28</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,0; 9,27</t>
+          <t>4,04; 9,55</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,56; 6,41</t>
+          <t>3,56; 6,46</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que no le ayuda nadie cuando tiene dificultades en la actividades instrumentales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>794</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2628</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1830</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1160</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4127</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1231</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2775</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1160</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>4921</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>3859</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3869</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2002</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3581</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>978; 6192</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5601</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7310</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1087; 9273</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>302; 3654</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>875; 7324</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5802</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1829; 10797</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1643; 7580</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2326</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>6554</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>8491</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3102</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>8538</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>4176</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>8491</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>5428</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7094</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6282</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1664</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>553; 5632</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2960; 13055</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6689</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3600; 16112</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1372; 6376</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>3927; 15891</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1017; 10403</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3552; 15476</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2760; 9347</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2666</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3316</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2181</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3840</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>980</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2067</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2887</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>6507</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>4295</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>2067</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>5067</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7764</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 10935</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1704</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>630; 5744</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1015; 8569</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4438</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6643</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1145; 6529</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2635; 13350</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>966; 11908</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7249</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2363; 9309</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>838</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1059</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1264</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2988</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>7473</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>7505</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>3826</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>3021</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>8533</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>8769</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 3576</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4479</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5408</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4487</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>921; 8073</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6947</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>3152; 15228</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>4465; 11381</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>936; 9346</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>949; 8452</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>3236; 16853</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>5060; 13867</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>6434</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>6292</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1853</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>8399</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>15212</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>6361</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>22159</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>14724</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>21647</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>12653</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>24011</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>23124</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2765; 13269</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2039; 14879</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6503</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4824; 13738</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>8948; 23910</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2341; 12494</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>13564; 33523</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>10260; 21099</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>13766; 33965</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>7058; 22497</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>15700; 37119</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>17267; 31358</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>